--- a/resultados/por_vector/V3.xlsx
+++ b/resultados/por_vector/V3.xlsx
@@ -2557,7 +2557,7 @@
         <v>31.71291772561491</v>
       </c>
       <c r="D8">
-        <v>0.1725</v>
+        <v>6.610849918632717</v>
       </c>
       <c r="E8">
         <v>0.001651370429369658</v>
@@ -2591,7 +2591,7 @@
         <v>168.0050148482447</v>
       </c>
       <c r="D10">
-        <v>0.1725000000000001</v>
+        <v>35.02219342757974</v>
       </c>
       <c r="E10">
         <v>0.007538251664568795</v>
@@ -2625,7 +2625,7 @@
         <v>36.19348895548077</v>
       </c>
       <c r="D12">
-        <v>0.1724999999999999</v>
+        <v>7.544866277728616</v>
       </c>
       <c r="E12">
         <v>0.004800197474201694</v>
@@ -2642,7 +2642,7 @@
         <v>416.3067903965919</v>
       </c>
       <c r="D13">
-        <v>0.1725</v>
+        <v>86.78298651771854</v>
       </c>
       <c r="E13">
         <v>0.1503455364379169</v>
@@ -2659,7 +2659,7 @@
         <v>66.28841919990529</v>
       </c>
       <c r="D14">
-        <v>0.1724999999999999</v>
+        <v>13.8184317969591</v>
       </c>
       <c r="E14">
         <v>0.008623444672811929</v>
@@ -2676,7 +2676,7 @@
         <v>237.4818350326398</v>
       </c>
       <c r="D15">
-        <v>0.1725</v>
+        <v>49.50527678928142</v>
       </c>
       <c r="E15">
         <v>0.02501125171486465</v>
@@ -2693,7 +2693,7 @@
         <v>55.08483459695594</v>
       </c>
       <c r="D16">
-        <v>0.1725</v>
+        <v>11.48294135102707</v>
       </c>
       <c r="E16">
         <v>0.002868852382529865</v>
@@ -2744,7 +2744,7 @@
         <v>37.44138803271434</v>
       </c>
       <c r="D19">
-        <v>0.1724999999999999</v>
+        <v>7.805002339145886</v>
       </c>
       <c r="E19">
         <v>0.006150030885794078</v>
@@ -2761,7 +2761,7 @@
         <v>164.8181024404395</v>
       </c>
       <c r="D20">
-        <v>0.1725</v>
+        <v>34.35785217036351</v>
       </c>
       <c r="E20">
         <v>0.006712748032437564</v>
@@ -2778,7 +2778,7 @@
         <v>64.80217467613804</v>
       </c>
       <c r="D21">
-        <v>0.1725</v>
+        <v>13.50861043097741</v>
       </c>
       <c r="E21">
         <v>0.007438266147398765</v>
@@ -2795,7 +2795,7 @@
         <v>99.12623909603344</v>
       </c>
       <c r="D22">
-        <v>0.1725</v>
+        <v>20.66377793844806</v>
       </c>
       <c r="E22">
         <v>0.006774156980525759</v>
@@ -2812,7 +2812,7 @@
         <v>39.78374413090079</v>
       </c>
       <c r="D23">
-        <v>0.1725000000000001</v>
+        <v>8.293288051456663</v>
       </c>
       <c r="E23">
         <v>0.008780345206555018</v>
@@ -2829,7 +2829,7 @@
         <v>230.604293785808</v>
       </c>
       <c r="D24">
-        <v>0.1725</v>
+        <v>48.07158994326511</v>
       </c>
       <c r="E24">
         <v>0.01757252867376423</v>
@@ -2846,7 +2846,7 @@
         <v>58.59895055452978</v>
       </c>
       <c r="D25">
-        <v>0.1725</v>
+        <v>12.21549120321014</v>
       </c>
       <c r="E25">
         <v>0.006915146395389401</v>
@@ -2863,7 +2863,7 @@
         <v>92.10929339689972</v>
       </c>
       <c r="D26">
-        <v>0.1724999999999999</v>
+        <v>19.20103094980688</v>
       </c>
       <c r="E26">
         <v>0.00788336985594828</v>
@@ -2880,7 +2880,7 @@
         <v>52.46041467994635</v>
       </c>
       <c r="D27">
-        <v>0.1724999999999999</v>
+        <v>10.93585683660513</v>
       </c>
       <c r="E27">
         <v>0.007479386181914222</v>
@@ -2897,7 +2897,7 @@
         <v>48.99662507371956</v>
       </c>
       <c r="D28">
-        <v>0.1725</v>
+        <v>10.21379797609259</v>
       </c>
       <c r="E28">
         <v>0.009080175143387612</v>
@@ -2914,7 +2914,7 @@
         <v>496.7974413458748</v>
       </c>
       <c r="D29">
-        <v>0.1725</v>
+        <v>103.5620043893213</v>
       </c>
       <c r="E29">
         <v>0.1502714583623336</v>
@@ -2931,7 +2931,7 @@
         <v>94.52729865757465</v>
       </c>
       <c r="D30">
-        <v>0.1725</v>
+        <v>19.7050864271077</v>
       </c>
       <c r="E30">
         <v>0.004149756295604489</v>
@@ -2948,7 +2948,7 @@
         <v>105.1842193855319</v>
       </c>
       <c r="D31">
-        <v>0.1725</v>
+        <v>21.92661975106255</v>
       </c>
       <c r="E31">
         <v>0.01990240669546489</v>
@@ -2982,7 +2982,7 @@
         <v>31.92105353394459</v>
       </c>
       <c r="D33">
-        <v>0.1725</v>
+        <v>6.654237745746755</v>
       </c>
       <c r="E33">
         <v>0.001226176527251741</v>
@@ -2999,7 +2999,7 @@
         <v>69.84324233822534</v>
       </c>
       <c r="D34">
-        <v>0.1724999999999999</v>
+        <v>14.55946743606509</v>
       </c>
       <c r="E34">
         <v>0.006370814771342273</v>
@@ -3254,7 +3254,7 @@
         <v>34.84592619327894</v>
       </c>
       <c r="D49">
-        <v>0.1725</v>
+        <v>7.263954402828539</v>
       </c>
       <c r="E49">
         <v>0.0183883515531815</v>
@@ -3339,7 +3339,7 @@
         <v>80.90863765826755</v>
       </c>
       <c r="D54">
-        <v>0.1725</v>
+        <v>16.86615105262979</v>
       </c>
       <c r="E54">
         <v>0.003408832427144199</v>
@@ -3356,7 +3356,7 @@
         <v>35.66692686902622</v>
       </c>
       <c r="D55">
-        <v>0.1725</v>
+        <v>7.435099558800026</v>
       </c>
       <c r="E55">
         <v>0.005080035161519188</v>
@@ -3373,7 +3373,7 @@
         <v>43.19364990719151</v>
       </c>
       <c r="D56">
-        <v>0.1725</v>
+        <v>9.004114331106386</v>
       </c>
       <c r="E56">
         <v>0.003624844738770688</v>
@@ -3390,7 +3390,7 @@
         <v>37.48862919224669</v>
       </c>
       <c r="D57">
-        <v>0.1724999999999999</v>
+        <v>7.81485019415414</v>
       </c>
       <c r="E57">
         <v>0.005679234842031009</v>
@@ -3407,7 +3407,7 @@
         <v>23.3540874302061</v>
       </c>
       <c r="D58">
-        <v>0.1725</v>
+        <v>4.868374721100366</v>
       </c>
       <c r="E58">
         <v>0.005138413075952938</v>
@@ -3424,7 +3424,7 @@
         <v>50.30422507462129</v>
       </c>
       <c r="D59">
-        <v>0.1725</v>
+        <v>10.48637924516274</v>
       </c>
       <c r="E59">
         <v>0.003376349088839606</v>
@@ -3441,7 +3441,7 @@
         <v>88.56457634603255</v>
       </c>
       <c r="D60">
-        <v>0.1725</v>
+        <v>18.46210201775301</v>
       </c>
       <c r="E60">
         <v>0.003937778504558826</v>
@@ -3628,7 +3628,7 @@
         <v>59.70888572988277</v>
       </c>
       <c r="D71">
-        <v>0.1725</v>
+        <v>12.44686741801181</v>
       </c>
       <c r="E71">
         <v>0.004089649707526217</v>
@@ -3764,7 +3764,7 @@
         <v>103.6653014546417</v>
       </c>
       <c r="D79">
-        <v>0.1724999999999999</v>
+        <v>21.60998731229689</v>
       </c>
       <c r="E79">
         <v>0.004266061788256859</v>
@@ -3781,7 +3781,7 @@
         <v>82.62859801667078</v>
       </c>
       <c r="D80">
-        <v>0.1725</v>
+        <v>17.22469263791626</v>
       </c>
       <c r="E80">
         <v>0.008102431654900056</v>
@@ -3798,7 +3798,7 @@
         <v>172.6274258619514</v>
       </c>
       <c r="D81">
-        <v>0.1724999999999999</v>
+        <v>35.98577759660012</v>
       </c>
       <c r="E81">
         <v>0.01705299079936298</v>
@@ -3815,7 +3815,7 @@
         <v>73.62597932562521</v>
       </c>
       <c r="D82">
-        <v>0.1725</v>
+        <v>15.34801381712428</v>
       </c>
       <c r="E82">
         <v>0.00770710555067782</v>
@@ -3832,7 +3832,7 @@
         <v>46.7603386445668</v>
       </c>
       <c r="D83">
-        <v>0.1724999999999999</v>
+        <v>9.747623463671019</v>
       </c>
       <c r="E83">
         <v>0.01290296320214316</v>
@@ -3849,7 +3849,7 @@
         <v>65.31881270186126</v>
       </c>
       <c r="D84">
-        <v>0.1725</v>
+        <v>13.61630838800129</v>
       </c>
       <c r="E84">
         <v>0.004269203444566096</v>
@@ -3866,7 +3866,7 @@
         <v>74.17521570238648</v>
       </c>
       <c r="D85">
-        <v>0.1725000000000001</v>
+        <v>15.46250720079961</v>
       </c>
       <c r="E85">
         <v>0.004399739943198676</v>
@@ -3883,7 +3883,7 @@
         <v>65.22121523541834</v>
       </c>
       <c r="D86">
-        <v>0.1725</v>
+        <v>13.59596329680926</v>
       </c>
       <c r="E86">
         <v>0.01089380578510412</v>
@@ -3900,7 +3900,7 @@
         <v>57.48795009579691</v>
       </c>
       <c r="D87">
-        <v>0.1725</v>
+        <v>11.98389292027186</v>
       </c>
       <c r="E87">
         <v>0.005769565445182348</v>
@@ -3917,7 +3917,7 @@
         <v>257.0467531766142</v>
       </c>
       <c r="D88">
-        <v>0.1725</v>
+        <v>53.58376425736066</v>
       </c>
       <c r="E88">
         <v>0.06709651609935113</v>
@@ -4066,7 +4066,7 @@
         <v>25.1020678069822</v>
       </c>
       <c r="D8">
-        <v>0.345</v>
+        <v>13.22169983726543</v>
       </c>
       <c r="E8">
         <v>0.001307127046812237</v>
@@ -4100,7 +4100,7 @@
         <v>132.982821420665</v>
       </c>
       <c r="D10">
-        <v>0.345</v>
+        <v>70.04438685515944</v>
       </c>
       <c r="E10">
         <v>0.00596683364385808</v>
@@ -4134,7 +4134,7 @@
         <v>28.64862267775215</v>
       </c>
       <c r="D12">
-        <v>0.345</v>
+        <v>15.08973255545724</v>
       </c>
       <c r="E12">
         <v>0.003799552079277474</v>
@@ -4151,7 +4151,7 @@
         <v>329.5238038788734</v>
       </c>
       <c r="D13">
-        <v>0.345</v>
+        <v>173.5659730354371</v>
       </c>
       <c r="E13">
         <v>0.1190046240082605</v>
@@ -4168,7 +4168,7 @@
         <v>52.46998740294618</v>
       </c>
       <c r="D14">
-        <v>0.345</v>
+        <v>27.63686359391821</v>
       </c>
       <c r="E14">
         <v>0.006825808170020317</v>
@@ -4185,7 +4185,7 @@
         <v>187.9765582433584</v>
       </c>
       <c r="D15">
-        <v>0.345</v>
+        <v>99.01055357856282</v>
       </c>
       <c r="E15">
         <v>0.01979742582868441</v>
@@ -4202,7 +4202,7 @@
         <v>43.60189324592888</v>
       </c>
       <c r="D16">
-        <v>0.3449999999999999</v>
+        <v>22.96588270205413</v>
       </c>
       <c r="E16">
         <v>0.002270813668346903</v>
@@ -4253,7 +4253,7 @@
         <v>29.63638569356845</v>
       </c>
       <c r="D19">
-        <v>0.345</v>
+        <v>15.61000467829178</v>
       </c>
       <c r="E19">
         <v>0.004868000278181414</v>
@@ -4270,7 +4270,7 @@
         <v>130.460250270076</v>
       </c>
       <c r="D20">
-        <v>0.3449999999999999</v>
+        <v>68.71570434072703</v>
       </c>
       <c r="E20">
         <v>0.005313413850449069</v>
@@ -4287,7 +4287,7 @@
         <v>51.29356424516062</v>
       </c>
       <c r="D21">
-        <v>0.3449999999999999</v>
+        <v>27.01722086195483</v>
       </c>
       <c r="E21">
         <v>0.005887691029058841</v>
@@ -4304,7 +4304,7 @@
         <v>78.46246115758538</v>
       </c>
       <c r="D22">
-        <v>0.3450000000000001</v>
+        <v>41.32755587689613</v>
       </c>
       <c r="E22">
         <v>0.005362021537455435</v>
@@ -4321,7 +4321,7 @@
         <v>31.49045607944413</v>
       </c>
       <c r="D23">
-        <v>0.345</v>
+        <v>16.58657610291332</v>
       </c>
       <c r="E23">
         <v>0.006950001341744456</v>
@@ -4338,7 +4338,7 @@
         <v>182.5327038425429</v>
       </c>
       <c r="D24">
-        <v>0.345</v>
+        <v>96.14317988653022</v>
       </c>
       <c r="E24">
         <v>0.01390937314962607</v>
@@ -4355,7 +4355,7 @@
         <v>46.38345935131964</v>
       </c>
       <c r="D25">
-        <v>0.345</v>
+        <v>24.43098240642027</v>
       </c>
       <c r="E25">
         <v>0.005473620409643574</v>
@@ -4372,7 +4372,7 @@
         <v>72.90826244709282</v>
       </c>
       <c r="D26">
-        <v>0.345</v>
+        <v>38.40206189961377</v>
       </c>
       <c r="E26">
         <v>0.006240008768152416</v>
@@ -4389,7 +4389,7 @@
         <v>41.52455784334122</v>
       </c>
       <c r="D27">
-        <v>0.345</v>
+        <v>21.87171367321026</v>
       </c>
       <c r="E27">
         <v>0.005920239213478931</v>
@@ -4406,7 +4406,7 @@
         <v>38.78282709762696</v>
       </c>
       <c r="D28">
-        <v>0.3449999999999999</v>
+        <v>20.42759595218519</v>
       </c>
       <c r="E28">
         <v>0.00718732896546089</v>
@@ -4423,7 +4423,7 @@
         <v>393.2354369565535</v>
       </c>
       <c r="D29">
-        <v>0.345</v>
+        <v>207.1240087786426</v>
       </c>
       <c r="E29">
         <v>0.1189459881901251</v>
@@ -4440,7 +4440,7 @@
         <v>74.82221223046693</v>
       </c>
       <c r="D30">
-        <v>0.3450000000000001</v>
+        <v>39.41017285421542</v>
       </c>
       <c r="E30">
         <v>0.003284701357850078</v>
@@ -4457,7 +4457,7 @@
         <v>83.25759963446939</v>
       </c>
       <c r="D31">
-        <v>0.345</v>
+        <v>43.85323950212509</v>
       </c>
       <c r="E31">
         <v>0.01575356662903867</v>
@@ -4491,7 +4491,7 @@
         <v>25.26681578819783</v>
       </c>
       <c r="D33">
-        <v>0.3449999999999999</v>
+        <v>13.30847549149351</v>
       </c>
       <c r="E33">
         <v>0.0009705687315406535</v>
@@ -4508,7 +4508,7 @@
         <v>55.28377490216023</v>
       </c>
       <c r="D34">
-        <v>0.345</v>
+        <v>29.1189348721302</v>
       </c>
       <c r="E34">
         <v>0.005042759728373642</v>
@@ -4763,7 +4763,7 @@
         <v>27.5819717904504</v>
       </c>
       <c r="D49">
-        <v>0.3449999999999999</v>
+        <v>14.52790880565708</v>
       </c>
       <c r="E49">
         <v>0.01455513023242765</v>
@@ -4848,7 +4848,7 @@
         <v>64.04248660563776</v>
       </c>
       <c r="D54">
-        <v>0.345</v>
+        <v>33.73230210525958</v>
       </c>
       <c r="E54">
         <v>0.002698229897014441</v>
@@ -4865,7 +4865,7 @@
         <v>28.23182731022619</v>
       </c>
       <c r="D55">
-        <v>0.3449999999999999</v>
+        <v>14.87019911760005</v>
       </c>
       <c r="E55">
         <v>0.004021055022108844</v>
@@ -4882,7 +4882,7 @@
         <v>34.18953557608513</v>
       </c>
       <c r="D56">
-        <v>0.3449999999999999</v>
+        <v>18.00822866221277</v>
       </c>
       <c r="E56">
         <v>0.002869212451836617</v>
@@ -4899,7 +4899,7 @@
         <v>29.67377899809254</v>
       </c>
       <c r="D57">
-        <v>0.345</v>
+        <v>15.62970038830829</v>
       </c>
       <c r="E57">
         <v>0.004495346007891614</v>
@@ -4916,7 +4916,7 @@
         <v>18.48571270910574</v>
       </c>
       <c r="D58">
-        <v>0.3449999999999999</v>
+        <v>9.736749442200729</v>
       </c>
       <c r="E58">
         <v>0.004067263522355499</v>
@@ -4933,7 +4933,7 @@
         <v>39.81784582945855</v>
       </c>
       <c r="D59">
-        <v>0.3449999999999999</v>
+        <v>20.97275849032549</v>
       </c>
       <c r="E59">
         <v>0.002672518009897211</v>
@@ -4950,7 +4950,7 @@
         <v>70.10247432827956</v>
       </c>
       <c r="D60">
-        <v>0.3449999999999999</v>
+        <v>36.92420403550601</v>
       </c>
       <c r="E60">
         <v>0.003116912290617561</v>
@@ -5137,7 +5137,7 @@
         <v>47.26201831187096</v>
       </c>
       <c r="D71">
-        <v>0.3449999999999999</v>
+        <v>24.89373483602363</v>
       </c>
       <c r="E71">
         <v>0.00323712454190897</v>
@@ -5273,7 +5273,7 @@
         <v>82.05531414234477</v>
       </c>
       <c r="D79">
-        <v>0.345</v>
+        <v>43.2199746245938</v>
       </c>
       <c r="E79">
         <v>0.003376761898861925</v>
@@ -5290,7 +5290,7 @@
         <v>65.40390537875452</v>
       </c>
       <c r="D80">
-        <v>0.345</v>
+        <v>34.44938527583253</v>
       </c>
       <c r="E80">
         <v>0.006413405116567417</v>
@@ -5307,7 +5307,7 @@
         <v>136.6416482653513</v>
       </c>
       <c r="D81">
-        <v>0.345</v>
+        <v>71.97155519320026</v>
       </c>
       <c r="E81">
         <v>0.01349813773242628</v>
@@ -5324,7 +5324,7 @@
         <v>58.27796550850092</v>
       </c>
       <c r="D82">
-        <v>0.345</v>
+        <v>30.69602763424857</v>
       </c>
       <c r="E82">
         <v>0.006100488381503289</v>
@@ -5341,7 +5341,7 @@
         <v>37.01271518089577</v>
       </c>
       <c r="D83">
-        <v>0.345</v>
+        <v>19.49524692734204</v>
       </c>
       <c r="E83">
         <v>0.0102132216282825</v>
@@ -5358,7 +5358,7 @@
         <v>51.70250431385998</v>
       </c>
       <c r="D84">
-        <v>0.3449999999999999</v>
+        <v>27.23261677600257</v>
       </c>
       <c r="E84">
         <v>0.003379248647964704</v>
@@ -5375,7 +5375,7 @@
         <v>58.71270850158689</v>
       </c>
       <c r="D85">
-        <v>0.345</v>
+        <v>30.9250144015992</v>
       </c>
       <c r="E85">
         <v>0.00348257361062856</v>
@@ -5392,7 +5392,7 @@
         <v>51.62525193860908</v>
       </c>
       <c r="D86">
-        <v>0.345</v>
+        <v>27.19192659361852</v>
       </c>
       <c r="E86">
         <v>0.008622891588209301</v>
@@ -5409,7 +5409,7 @@
         <v>45.50405717552505</v>
       </c>
       <c r="D87">
-        <v>0.345</v>
+        <v>23.96778584054373</v>
       </c>
       <c r="E87">
         <v>0.004566846364464578</v>
@@ -5426,7 +5426,7 @@
         <v>203.4629889192535</v>
       </c>
       <c r="D88">
-        <v>0.345</v>
+        <v>107.1675285147213</v>
       </c>
       <c r="E88">
         <v>0.05310962905749243</v>
@@ -5575,7 +5575,7 @@
         <v>18.49121788834948</v>
       </c>
       <c r="D8">
-        <v>0.5175</v>
+        <v>19.83254975589815</v>
       </c>
       <c r="E8">
         <v>0.0009628836642548157</v>
@@ -5609,7 +5609,7 @@
         <v>97.96062799308532</v>
       </c>
       <c r="D10">
-        <v>0.5175</v>
+        <v>105.0665802827392</v>
       </c>
       <c r="E10">
         <v>0.004395415623147365</v>
@@ -5643,7 +5643,7 @@
         <v>21.10375640002353</v>
       </c>
       <c r="D12">
-        <v>0.5174999999999998</v>
+        <v>22.63459883318585</v>
       </c>
       <c r="E12">
         <v>0.002798906684353254</v>
@@ -5660,7 +5660,7 @@
         <v>242.7408173611548</v>
       </c>
       <c r="D13">
-        <v>0.5175</v>
+        <v>260.3489595531556</v>
       </c>
       <c r="E13">
         <v>0.08766371157860413</v>
@@ -5677,7 +5677,7 @@
         <v>38.65155560598708</v>
       </c>
       <c r="D14">
-        <v>0.5175</v>
+        <v>41.45529539087732</v>
       </c>
       <c r="E14">
         <v>0.005028171667228708</v>
@@ -5694,7 +5694,7 @@
         <v>138.471281454077</v>
       </c>
       <c r="D15">
-        <v>0.5175</v>
+        <v>148.5158303678442</v>
       </c>
       <c r="E15">
         <v>0.01458359994250416</v>
@@ -5711,7 +5711,7 @@
         <v>32.11895189490181</v>
       </c>
       <c r="D16">
-        <v>0.5175</v>
+        <v>34.4488240530812</v>
       </c>
       <c r="E16">
         <v>0.00167277495416394</v>
@@ -5762,7 +5762,7 @@
         <v>21.83138335442256</v>
       </c>
       <c r="D19">
-        <v>0.5175</v>
+        <v>23.41500701743767</v>
       </c>
       <c r="E19">
         <v>0.003585969670568752</v>
@@ -5779,7 +5779,7 @@
         <v>96.10239809971247</v>
       </c>
       <c r="D20">
-        <v>0.5175</v>
+        <v>103.0735565110905</v>
       </c>
       <c r="E20">
         <v>0.003914079668460574</v>
@@ -5796,7 +5796,7 @@
         <v>37.78495381418321</v>
       </c>
       <c r="D21">
-        <v>0.5175</v>
+        <v>40.52583129293224</v>
       </c>
       <c r="E21">
         <v>0.004337115910718918</v>
@@ -5813,7 +5813,7 @@
         <v>57.79868321913733</v>
       </c>
       <c r="D22">
-        <v>0.5175</v>
+        <v>61.99133381534418</v>
       </c>
       <c r="E22">
         <v>0.003949886094385111</v>
@@ -5830,7 +5830,7 @@
         <v>23.19716802798747</v>
       </c>
       <c r="D23">
-        <v>0.5175</v>
+        <v>24.87986415436998</v>
       </c>
       <c r="E23">
         <v>0.005119657476933893</v>
@@ -5847,7 +5847,7 @@
         <v>134.4611138992778</v>
       </c>
       <c r="D24">
-        <v>0.5175</v>
+        <v>144.2147698297953</v>
       </c>
       <c r="E24">
         <v>0.01024621762548791</v>
@@ -5864,7 +5864,7 @@
         <v>34.16796814810952</v>
       </c>
       <c r="D25">
-        <v>0.5174999999999998</v>
+        <v>36.6464736096304</v>
       </c>
       <c r="E25">
         <v>0.004032094423897748</v>
@@ -5881,7 +5881,7 @@
         <v>53.70723149728593</v>
       </c>
       <c r="D26">
-        <v>0.5175</v>
+        <v>57.60309284942066</v>
       </c>
       <c r="E26">
         <v>0.00459664768035655</v>
@@ -5898,7 +5898,7 @@
         <v>30.58870100673609</v>
       </c>
       <c r="D27">
-        <v>0.5175</v>
+        <v>32.80757050981538</v>
       </c>
       <c r="E27">
         <v>0.00436109224504364</v>
@@ -5915,7 +5915,7 @@
         <v>28.56902912153437</v>
       </c>
       <c r="D28">
-        <v>0.5175</v>
+        <v>30.64139392827778</v>
       </c>
       <c r="E28">
         <v>0.005294482787534168</v>
@@ -5932,7 +5932,7 @@
         <v>289.6734325672321</v>
       </c>
       <c r="D29">
-        <v>0.5175000000000001</v>
+        <v>310.686013167964</v>
       </c>
       <c r="E29">
         <v>0.08762051801791655</v>
@@ -5949,7 +5949,7 @@
         <v>55.11712580335924</v>
       </c>
       <c r="D30">
-        <v>0.5175</v>
+        <v>59.11525928132311</v>
       </c>
       <c r="E30">
         <v>0.002419646420095669</v>
@@ -5966,7 +5966,7 @@
         <v>61.33097988340684</v>
       </c>
       <c r="D31">
-        <v>0.5175</v>
+        <v>65.77985925318764</v>
       </c>
       <c r="E31">
         <v>0.01160472656261246</v>
@@ -6000,7 +6000,7 @@
         <v>18.61257804245107</v>
       </c>
       <c r="D33">
-        <v>0.5175</v>
+        <v>19.96271323724027</v>
       </c>
       <c r="E33">
         <v>0.0007149609358295653</v>
@@ -6017,7 +6017,7 @@
         <v>40.72430746609513</v>
       </c>
       <c r="D34">
-        <v>0.5175</v>
+        <v>43.6784023081953</v>
       </c>
       <c r="E34">
         <v>0.003714704685405011</v>
@@ -6272,7 +6272,7 @@
         <v>20.31801738762186</v>
       </c>
       <c r="D49">
-        <v>0.5175</v>
+        <v>21.79186320848562</v>
       </c>
       <c r="E49">
         <v>0.0107219089116738</v>
@@ -6357,7 +6357,7 @@
         <v>47.17633555300797</v>
       </c>
       <c r="D54">
-        <v>0.5175</v>
+        <v>50.59845315788937</v>
       </c>
       <c r="E54">
         <v>0.001987627366884684</v>
@@ -6374,7 +6374,7 @@
         <v>20.79672775142616</v>
       </c>
       <c r="D55">
-        <v>0.5175</v>
+        <v>22.30529867640008</v>
       </c>
       <c r="E55">
         <v>0.002962074882698499</v>
@@ -6391,7 +6391,7 @@
         <v>25.18542124497874</v>
       </c>
       <c r="D56">
-        <v>0.5175</v>
+        <v>27.01234299331916</v>
       </c>
       <c r="E56">
         <v>0.002113580164902546</v>
@@ -6408,7 +6408,7 @@
         <v>21.8589288039384</v>
       </c>
       <c r="D57">
-        <v>0.5175</v>
+        <v>23.44455058246243</v>
       </c>
       <c r="E57">
         <v>0.003311457173752219</v>
@@ -6425,7 +6425,7 @@
         <v>13.61733798800537</v>
       </c>
       <c r="D58">
-        <v>0.5175</v>
+        <v>14.6051241633011</v>
       </c>
       <c r="E58">
         <v>0.002996113968758058</v>
@@ -6442,7 +6442,7 @@
         <v>29.3314665842958</v>
       </c>
       <c r="D59">
-        <v>0.5175</v>
+        <v>31.45913773548823</v>
       </c>
       <c r="E59">
         <v>0.001968686930954816</v>
@@ -6459,7 +6459,7 @@
         <v>51.64037231052654</v>
       </c>
       <c r="D60">
-        <v>0.5175</v>
+        <v>55.38630605325903</v>
       </c>
       <c r="E60">
         <v>0.002296046076676295</v>
@@ -6646,7 +6646,7 @@
         <v>34.81515089385914</v>
       </c>
       <c r="D71">
-        <v>0.5175</v>
+        <v>37.34060225403545</v>
       </c>
       <c r="E71">
         <v>0.002384599376291722</v>
@@ -6782,7 +6782,7 @@
         <v>60.44532683004786</v>
       </c>
       <c r="D79">
-        <v>0.5175</v>
+        <v>64.82996193689071</v>
       </c>
       <c r="E79">
         <v>0.00248746200946699</v>
@@ -6799,7 +6799,7 @@
         <v>48.17921274083825</v>
       </c>
       <c r="D80">
-        <v>0.5175</v>
+        <v>51.67407791374879</v>
       </c>
       <c r="E80">
         <v>0.004724378578234776</v>
@@ -6816,7 +6816,7 @@
         <v>100.6558706687511</v>
       </c>
       <c r="D81">
-        <v>0.5175</v>
+        <v>107.9573327898004</v>
       </c>
       <c r="E81">
         <v>0.009943284665489591</v>
@@ -6833,7 +6833,7 @@
         <v>42.92995169137663</v>
       </c>
       <c r="D82">
-        <v>0.5175</v>
+        <v>46.04404145137286</v>
       </c>
       <c r="E82">
         <v>0.004493871212328759</v>
@@ -6850,7 +6850,7 @@
         <v>27.26509171722475</v>
       </c>
       <c r="D83">
-        <v>0.5175</v>
+        <v>29.24287039101307</v>
       </c>
       <c r="E83">
         <v>0.00752348005442184</v>
@@ -6867,7 +6867,7 @@
         <v>38.08619592585868</v>
       </c>
       <c r="D84">
-        <v>0.5175</v>
+        <v>40.84892516400387</v>
       </c>
       <c r="E84">
         <v>0.002489293851363312</v>
@@ -6884,7 +6884,7 @@
         <v>43.2502013007873</v>
       </c>
       <c r="D85">
-        <v>0.5174999999999998</v>
+        <v>46.38752160239879</v>
       </c>
       <c r="E85">
         <v>0.002565407278058443</v>
@@ -6901,7 +6901,7 @@
         <v>38.02928864179982</v>
       </c>
       <c r="D86">
-        <v>0.5175</v>
+        <v>40.78788989042778</v>
       </c>
       <c r="E86">
         <v>0.006351977391314485</v>
@@ -6918,7 +6918,7 @@
         <v>33.52016425525319</v>
       </c>
       <c r="D87">
-        <v>0.5175</v>
+        <v>35.95167876081559</v>
       </c>
       <c r="E87">
         <v>0.003364127283746807</v>
@@ -6935,7 +6935,7 @@
         <v>149.8792246618929</v>
       </c>
       <c r="D88">
-        <v>0.5175</v>
+        <v>160.751292772082</v>
       </c>
       <c r="E88">
         <v>0.03912274201563374</v>
@@ -7084,7 +7084,7 @@
         <v>11.88036796971677</v>
       </c>
       <c r="D8">
-        <v>0.6899999999999999</v>
+        <v>26.44339967453086</v>
       </c>
       <c r="E8">
         <v>0.0006186402816973947</v>
@@ -7118,7 +7118,7 @@
         <v>62.93843456550559</v>
       </c>
       <c r="D10">
-        <v>0.6899999999999999</v>
+        <v>140.0887737103189</v>
       </c>
       <c r="E10">
         <v>0.002823997602436649</v>
@@ -7152,7 +7152,7 @@
         <v>13.55889012229491</v>
       </c>
       <c r="D12">
-        <v>0.6899999999999999</v>
+        <v>30.17946511091448</v>
       </c>
       <c r="E12">
         <v>0.001798261289429033</v>
@@ -7169,7 +7169,7 @@
         <v>155.9578308434363</v>
       </c>
       <c r="D13">
-        <v>0.6899999999999999</v>
+        <v>347.1319460708742</v>
       </c>
       <c r="E13">
         <v>0.05632279914894774</v>
@@ -7186,7 +7186,7 @@
         <v>24.83312380902797</v>
       </c>
       <c r="D14">
-        <v>0.6899999999999999</v>
+        <v>55.27372718783643</v>
       </c>
       <c r="E14">
         <v>0.003230535164437097</v>
@@ -7203,7 +7203,7 @@
         <v>88.96600466479561</v>
       </c>
       <c r="D15">
-        <v>0.6899999999999999</v>
+        <v>198.0211071571256</v>
       </c>
       <c r="E15">
         <v>0.009369774056323919</v>
@@ -7220,7 +7220,7 @@
         <v>20.63601054387474</v>
       </c>
       <c r="D16">
-        <v>0.6899999999999999</v>
+        <v>45.93176540410827</v>
       </c>
       <c r="E16">
         <v>0.001074736239980977</v>
@@ -7271,7 +7271,7 @@
         <v>14.02638101527667</v>
       </c>
       <c r="D19">
-        <v>0.6899999999999999</v>
+        <v>31.22000935658356</v>
       </c>
       <c r="E19">
         <v>0.00230393906295609</v>
@@ -7288,7 +7288,7 @@
         <v>61.74454592934896</v>
       </c>
       <c r="D20">
-        <v>0.6899999999999998</v>
+        <v>137.4314086814541</v>
       </c>
       <c r="E20">
         <v>0.002514745486472079</v>
@@ -7305,7 +7305,7 @@
         <v>24.27634338320579</v>
       </c>
       <c r="D21">
-        <v>0.6899999999999999</v>
+        <v>54.03444172390966</v>
       </c>
       <c r="E21">
         <v>0.002786540792378994</v>
@@ -7322,7 +7322,7 @@
         <v>37.13490528068927</v>
       </c>
       <c r="D22">
-        <v>0.6900000000000001</v>
+        <v>82.65511175379224</v>
       </c>
       <c r="E22">
         <v>0.002537750651314786</v>
@@ -7339,7 +7339,7 @@
         <v>14.90387997653081</v>
       </c>
       <c r="D23">
-        <v>0.6899999999999999</v>
+        <v>33.17315220582664</v>
       </c>
       <c r="E23">
         <v>0.00328931361212333</v>
@@ -7356,7 +7356,7 @@
         <v>86.38952395601268</v>
       </c>
       <c r="D24">
-        <v>0.6899999999999999</v>
+        <v>192.2863597730604</v>
       </c>
       <c r="E24">
         <v>0.006583062101349743</v>
@@ -7373,7 +7373,7 @@
         <v>21.95247694489937</v>
       </c>
       <c r="D25">
-        <v>0.6899999999999999</v>
+        <v>48.86196481284054</v>
       </c>
       <c r="E25">
         <v>0.00259056843815192</v>
@@ -7390,7 +7390,7 @@
         <v>34.50620054747905</v>
       </c>
       <c r="D26">
-        <v>0.6899999999999999</v>
+        <v>76.80412379922754</v>
       </c>
       <c r="E26">
         <v>0.002953286592560686</v>
@@ -7407,7 +7407,7 @@
         <v>19.65284417013096</v>
       </c>
       <c r="D27">
-        <v>0.6899999999999999</v>
+        <v>43.74342734642052</v>
       </c>
       <c r="E27">
         <v>0.002801945276608349</v>
@@ -7424,7 +7424,7 @@
         <v>18.35523114544177</v>
       </c>
       <c r="D28">
-        <v>0.6899999999999999</v>
+        <v>40.85519190437038</v>
       </c>
       <c r="E28">
         <v>0.003401636609607444</v>
@@ -7441,7 +7441,7 @@
         <v>186.1114281779109</v>
       </c>
       <c r="D29">
-        <v>0.6899999999999999</v>
+        <v>414.2480175572853</v>
       </c>
       <c r="E29">
         <v>0.05629504784570806</v>
@@ -7458,7 +7458,7 @@
         <v>35.41203937625153</v>
       </c>
       <c r="D30">
-        <v>0.6900000000000001</v>
+        <v>78.82034570843082</v>
       </c>
       <c r="E30">
         <v>0.001554591482341258</v>
@@ -7475,7 +7475,7 @@
         <v>39.40436013234429</v>
       </c>
       <c r="D31">
-        <v>0.6899999999999999</v>
+        <v>87.70647900425018</v>
       </c>
       <c r="E31">
         <v>0.007455886496186243</v>
@@ -7509,7 +7509,7 @@
         <v>11.95834029670432</v>
       </c>
       <c r="D33">
-        <v>0.6899999999999999</v>
+        <v>26.61695098298702</v>
       </c>
       <c r="E33">
         <v>0.0004593531401184772</v>
@@ -7526,7 +7526,7 @@
         <v>26.16484003003004</v>
       </c>
       <c r="D34">
-        <v>0.6899999999999999</v>
+        <v>58.23786974426039</v>
       </c>
       <c r="E34">
         <v>0.00238664964243638</v>
@@ -7781,7 +7781,7 @@
         <v>13.05406298479332</v>
       </c>
       <c r="D49">
-        <v>0.6899999999999999</v>
+        <v>29.05581761131416</v>
       </c>
       <c r="E49">
         <v>0.006888687590919959</v>
@@ -7866,7 +7866,7 @@
         <v>30.31018450037818</v>
       </c>
       <c r="D54">
-        <v>0.6899999999999999</v>
+        <v>67.46460421051916</v>
       </c>
       <c r="E54">
         <v>0.001277024836754927</v>
@@ -7883,7 +7883,7 @@
         <v>13.36162819262614</v>
       </c>
       <c r="D55">
-        <v>0.6899999999999999</v>
+        <v>29.74039823520011</v>
       </c>
       <c r="E55">
         <v>0.001903094743288155</v>
@@ -7900,7 +7900,7 @@
         <v>16.18130691387235</v>
       </c>
       <c r="D56">
-        <v>0.6899999999999998</v>
+        <v>36.01645732442555</v>
       </c>
       <c r="E56">
         <v>0.001357947877968476</v>
@@ -7917,7 +7917,7 @@
         <v>14.04407860978426</v>
       </c>
       <c r="D57">
-        <v>0.6899999999999999</v>
+        <v>31.25940077661657</v>
       </c>
       <c r="E57">
         <v>0.002127568339612826</v>
@@ -7934,7 +7934,7 @@
         <v>8.748963266905008</v>
       </c>
       <c r="D58">
-        <v>0.6899999999999999</v>
+        <v>19.47349888440146</v>
       </c>
       <c r="E58">
         <v>0.001924964415160618</v>
@@ -7951,7 +7951,7 @@
         <v>18.84508733913305</v>
       </c>
       <c r="D59">
-        <v>0.6899999999999999</v>
+        <v>41.94551698065099</v>
       </c>
       <c r="E59">
         <v>0.00126485585201242</v>
@@ -7968,7 +7968,7 @@
         <v>33.17827029277353</v>
       </c>
       <c r="D60">
-        <v>0.6899999999999999</v>
+        <v>73.84840807101203</v>
       </c>
       <c r="E60">
         <v>0.001475179862735029</v>
@@ -8155,7 +8155,7 @@
         <v>22.36828347584733</v>
       </c>
       <c r="D71">
-        <v>0.6899999999999999</v>
+        <v>49.78746967204726</v>
       </c>
       <c r="E71">
         <v>0.001532074210674474</v>
@@ -8291,7 +8291,7 @@
         <v>38.83533951775097</v>
       </c>
       <c r="D79">
-        <v>0.6899999999999999</v>
+        <v>86.43994924918761</v>
       </c>
       <c r="E79">
         <v>0.001598162120072056</v>
@@ -8308,7 +8308,7 @@
         <v>30.95452010292199</v>
       </c>
       <c r="D80">
-        <v>0.6899999999999999</v>
+        <v>68.89877055166505</v>
       </c>
       <c r="E80">
         <v>0.003035352039902137</v>
@@ -8325,7 +8325,7 @@
         <v>64.67009307215099</v>
       </c>
       <c r="D81">
-        <v>0.6899999999999999</v>
+        <v>143.9431103864005</v>
       </c>
       <c r="E81">
         <v>0.006388431598552898</v>
@@ -8342,7 +8342,7 @@
         <v>27.58193787425235</v>
       </c>
       <c r="D82">
-        <v>0.6899999999999999</v>
+        <v>61.39205526849715</v>
       </c>
       <c r="E82">
         <v>0.002887254043154229</v>
@@ -8359,7 +8359,7 @@
         <v>17.51746825355373</v>
       </c>
       <c r="D83">
-        <v>0.6899999999999999</v>
+        <v>38.99049385468409</v>
       </c>
       <c r="E83">
         <v>0.004833738480561183</v>
@@ -8376,7 +8376,7 @@
         <v>24.4698875378574</v>
       </c>
       <c r="D84">
-        <v>0.6899999999999999</v>
+        <v>54.46523355200515</v>
       </c>
       <c r="E84">
         <v>0.001599339054761921</v>
@@ -8393,7 +8393,7 @@
         <v>27.78769409998769</v>
       </c>
       <c r="D85">
-        <v>0.6899999999999999</v>
+        <v>61.8500288031984</v>
       </c>
       <c r="E85">
         <v>0.001648240945488326</v>
@@ -8410,7 +8410,7 @@
         <v>24.43332534499056</v>
       </c>
       <c r="D86">
-        <v>0.6899999999999999</v>
+        <v>54.38385318723704</v>
       </c>
       <c r="E86">
         <v>0.004081063194419669</v>
@@ -8427,7 +8427,7 @@
         <v>21.53627133498132</v>
       </c>
       <c r="D87">
-        <v>0.6899999999999999</v>
+        <v>47.93557168108745</v>
       </c>
       <c r="E87">
         <v>0.002161408203029037</v>
@@ -8444,7 +8444,7 @@
         <v>96.29546040453221</v>
       </c>
       <c r="D88">
-        <v>0.6899999999999999</v>
+        <v>214.3350570294426</v>
       </c>
       <c r="E88">
         <v>0.02513585497377505</v>
